--- a/report moi tuan/tuan 8/1159032-1359035-1359037-1359038.xlsx
+++ b/report moi tuan/tuan 8/1159032-1359035-1359037-1359038.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\son long\Documents\PM---Group-10\report moi tuan\tuan 6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thien\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="4635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tổng quan" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="77">
   <si>
     <t>MSSV</t>
   </si>
@@ -244,6 +244,18 @@
   </si>
   <si>
     <t>Tổng thời gian:</t>
+  </si>
+  <si>
+    <t>Testcase</t>
+  </si>
+  <si>
+    <t>Thêm nhiều chức năng cho mỗi function</t>
+  </si>
+  <si>
+    <t>Nguyễn Nguyên Thiên</t>
+  </si>
+  <si>
+    <t>Làm sign up và thông tin dữ liệu về skype với epoccam</t>
   </si>
 </sst>
 </file>
@@ -1182,16 +1194,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="49.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1784,6 +1796,40 @@
         <v>2</v>
       </c>
     </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="3">
+        <v>42376</v>
+      </c>
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36">
+        <v>1359038</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37">
+        <v>1359038</v>
+      </c>
+      <c r="E37">
+        <v>16</v>
+      </c>
+    </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1359037</v>
@@ -1797,6 +1843,21 @@
       <c r="D45">
         <f>SUM(E7:E30)</f>
         <v>58.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1359038</v>
+      </c>
+      <c r="B46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46">
+        <f>SUM(E31:E37)</f>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/report moi tuan/tuan 8/1159032-1359035-1359037-1359038.xlsx
+++ b/report moi tuan/tuan 8/1159032-1359035-1359037-1359038.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thien\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\son long\Documents\PM---Group-10\report moi tuan\tuan 8\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="4635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Tổng quan" sheetId="4" r:id="rId1"/>
     <sheet name="Chi tiết" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="82">
   <si>
     <t>MSSV</t>
   </si>
@@ -256,6 +256,21 @@
   </si>
   <si>
     <t>Làm sign up và thông tin dữ liệu về skype với epoccam</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Thống kê sản phẩm và thành viên</t>
+  </si>
+  <si>
+    <t>Thêm sản phẩm mới</t>
+  </si>
+  <si>
+    <t>Xoá sản phẩm</t>
+  </si>
+  <si>
+    <t>Kiểm tra, chỉnh sửa testcase</t>
   </si>
 </sst>
 </file>
@@ -291,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -302,6 +317,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,143 +656,143 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>1159032</v>
+        <v>1359038</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>1159032</v>
+        <v>1359038</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>1159032</v>
+        <v>1359038</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>1159032</v>
+        <v>1359038</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>1359037</v>
+        <v>1159032</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>1359037</v>
+        <v>1159032</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>1359037</v>
+        <v>1159032</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>1359037</v>
+        <v>1159032</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>1359037</v>
@@ -785,10 +801,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -805,7 +821,7 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -819,10 +835,10 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -839,7 +855,7 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -853,15 +869,15 @@
         <v>7</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>1359037</v>
@@ -870,15 +886,15 @@
         <v>7</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>1359037</v>
@@ -887,15 +903,15 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>1359037</v>
@@ -904,15 +920,15 @@
         <v>7</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>1359037</v>
@@ -921,15 +937,15 @@
         <v>7</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>1359037</v>
@@ -941,12 +957,12 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>1359037</v>
@@ -955,15 +971,15 @@
         <v>7</v>
       </c>
       <c r="D20">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>1359037</v>
@@ -972,15 +988,15 @@
         <v>7</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>1359037</v>
@@ -989,15 +1005,15 @@
         <v>7</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>1359037</v>
@@ -1006,15 +1022,15 @@
         <v>7</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>1359037</v>
@@ -1023,15 +1039,15 @@
         <v>7</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>1359037</v>
@@ -1043,12 +1059,12 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>1359037</v>
@@ -1060,12 +1076,12 @@
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>1359037</v>
@@ -1077,12 +1093,12 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>1359037</v>
@@ -1091,78 +1107,146 @@
         <v>7</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>1359038</v>
+        <v>1359037</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>1359038</v>
+        <v>1359037</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>1359038</v>
+        <v>1359037</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>1359038</v>
+        <v>1359037</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D32">
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>26</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>1359037</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>1359037</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>1359037</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>1359037</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1179,13 +1263,13 @@
         <v>71</v>
       </c>
       <c r="E44">
-        <f xml:space="preserve"> SUM(D6:D28)</f>
-        <v>58.5</v>
+        <f xml:space="preserve"> SUM(D10:D35)</f>
+        <v>63.5</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E32">
-    <sortCondition ref="B2:B32"/>
+  <sortState ref="A2:E35">
+    <sortCondition ref="C2:C35"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1196,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1226,30 +1310,30 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
+      </c>
+      <c r="B2" s="2">
+        <v>42557</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D2">
         <v>1159032</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>1159032</v>
@@ -1263,10 +1347,10 @@
         <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <v>1159032</v>
@@ -1277,13 +1361,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>1159032</v>
@@ -1294,30 +1378,30 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="2">
-        <v>42557</v>
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>1159032</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="D7">
         <v>1359037</v>
@@ -1328,64 +1412,64 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
+      </c>
+      <c r="B8" s="2">
+        <v>42619</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D8">
         <v>1359037</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="D9">
         <v>1359037</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="D10">
         <v>1359037</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="D11">
         <v>1359037</v>
@@ -1396,13 +1480,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D12">
         <v>1359037</v>
@@ -1413,138 +1497,138 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
+      </c>
+      <c r="B13" s="3">
+        <v>42496</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D13">
         <v>1359037</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2">
-        <v>42406</v>
+        <v>42649</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D14">
         <v>1359037</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="2">
-        <v>42406</v>
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D15">
         <v>1359037</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="3">
-        <v>42496</v>
+        <v>37</v>
+      </c>
+      <c r="B16" s="2">
+        <v>42406</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D16">
         <v>1359037</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2">
-        <v>42588</v>
+        <v>42406</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D17">
         <v>1359037</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="2">
-        <v>42619</v>
+        <v>11</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D18">
         <v>1359037</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="2">
-        <v>42649</v>
+        <v>11</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D19">
         <v>1359037</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="2">
-        <v>42710</v>
+        <v>11</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D20">
         <v>1359037</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1552,10 +1636,10 @@
         <v>47</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D21">
         <v>1359037</v>
@@ -1566,61 +1650,64 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>61</v>
+        <v>43</v>
+      </c>
+      <c r="B22" s="2">
+        <v>42588</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D22">
         <v>1359037</v>
       </c>
       <c r="E22">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>62</v>
+      <c r="B23" s="2">
+        <v>42710</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D23">
         <v>1359037</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24">
+        <v>1359037</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24">
-        <v>1359037</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D25">
         <v>1359037</v>
@@ -1631,19 +1718,19 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>64</v>
+        <v>77</v>
+      </c>
+      <c r="B26" s="2">
+        <v>42436</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="D26">
         <v>1359037</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1651,16 +1738,16 @@
         <v>47</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D27">
         <v>1359037</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1668,27 +1755,27 @@
         <v>47</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D28">
         <v>1359037</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
+      </c>
+      <c r="B29" s="2">
+        <v>42436</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="D29">
         <v>1359037</v>
@@ -1698,11 +1785,14 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>68</v>
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="D30">
         <v>1359037</v>
@@ -1713,16 +1803,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D31">
-        <v>1359038</v>
+        <v>1359037</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -1730,47 +1820,47 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
+      </c>
+      <c r="B32" s="2">
+        <v>42436</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="D32">
-        <v>1359038</v>
+        <v>1359037</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="D33">
-        <v>1359038</v>
+        <v>1359037</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D34">
         <v>1359038</v>
@@ -1784,33 +1874,33 @@
         <v>24</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="D35">
         <v>1359038</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" s="3">
-        <v>42376</v>
+        <v>11</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D36">
         <v>1359038</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1818,16 +1908,84 @@
         <v>24</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="D37">
         <v>1359038</v>
       </c>
       <c r="E37">
-        <v>16</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="3">
+        <v>42376</v>
+      </c>
+      <c r="C38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38">
+        <v>1359038</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39">
+        <v>1359038</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40">
+        <v>1359038</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="4">
+        <v>42711</v>
+      </c>
+      <c r="C41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41">
+        <v>1359037</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1841,8 +1999,8 @@
         <v>72</v>
       </c>
       <c r="D45">
-        <f>SUM(E7:E30)</f>
-        <v>58.5</v>
+        <f>SUM(E7:E33)</f>
+        <v>63.5</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1857,12 +2015,12 @@
       </c>
       <c r="D46">
         <f>SUM(E31:E37)</f>
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E35">
-    <sortCondition ref="D2:D35"/>
+  <sortState ref="A2:E40">
+    <sortCondition ref="D2:D40"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/report moi tuan/tuan 8/1159032-1359035-1359037-1359038.xlsx
+++ b/report moi tuan/tuan 8/1159032-1359035-1359037-1359038.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\son long\Documents\PM---Group-10\report moi tuan\tuan 8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CJ\Documents\PM---Group-10\report moi tuan\tuan 8\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="84">
   <si>
     <t>MSSV</t>
   </si>
@@ -271,6 +271,12 @@
   </si>
   <si>
     <t>Kiểm tra, chỉnh sửa testcase</t>
+  </si>
+  <si>
+    <t>Seminar tìm hiểu demo Teamviewer support</t>
+  </si>
+  <si>
+    <t>Seminar tìm hiểu demo Reflector 2</t>
   </si>
 </sst>
 </file>
@@ -622,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1249,6 +1255,40 @@
         <v>81</v>
       </c>
     </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>1159032</v>
+      </c>
+      <c r="C37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37">
+        <v>13.5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>1159032</v>
+      </c>
+      <c r="C38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38">
+        <v>13.5</v>
+      </c>
+      <c r="E38" t="s">
+        <v>83</v>
+      </c>
+    </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>70</v>
@@ -1265,6 +1305,17 @@
       <c r="E44">
         <f xml:space="preserve"> SUM(D10:D35)</f>
         <v>63.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>1159032</v>
+      </c>
+      <c r="C45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
